--- a/res/testcase/PakringOperation/UpgradeService/cendutySeat.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/cendutySeat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="763" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,16 @@
     <sheet name="003_setfrozenCenduty" sheetId="4" r:id="rId4"/>
     <sheet name="004_setStartCenduty" sheetId="3" r:id="rId5"/>
     <sheet name="005_delCenduty" sheetId="6" r:id="rId6"/>
+    <sheet name="006_addVoiceAccount" sheetId="7" r:id="rId7"/>
+    <sheet name="007_editVoiceAccount" sheetId="8" r:id="rId8"/>
+    <sheet name="008_delVoiceAccount" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="163">
   <si>
     <t>动作</t>
   </si>
@@ -469,6 +472,45 @@
   </si>
   <si>
     <t>删除成功</t>
+  </si>
+  <si>
+    <t>CendutySeatPage.语音账号</t>
+  </si>
+  <si>
+    <t>点击新增</t>
+  </si>
+  <si>
+    <t>CendutySeatPage.选择停车场按钮</t>
+  </si>
+  <si>
+    <t>CendutySeatPage.语音账号-选择停车场</t>
+  </si>
+  <si>
+    <t>$全局变量.停车场名称;on</t>
+  </si>
+  <si>
+    <t>CendutySeatPage.确认-二级提示</t>
+  </si>
+  <si>
+    <t>2语音账号新增界面</t>
+  </si>
+  <si>
+    <t>保存成功!</t>
+  </si>
+  <si>
+    <t>CendutySeatPage.语音帐号-编辑</t>
+  </si>
+  <si>
+    <t>CendutySeatPage.语音账号-密码</t>
+  </si>
+  <si>
+    <t>2语音账号编辑界面</t>
+  </si>
+  <si>
+    <t>CendutySeatPage.语音帐号-删除</t>
+  </si>
+  <si>
+    <t>操作成功!</t>
   </si>
 </sst>
 </file>
@@ -478,8 +520,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -498,67 +540,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,7 +564,58 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,34 +629,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -634,8 +652,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,13 +698,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,7 +752,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,55 +824,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,37 +836,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,37 +872,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,16 +908,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,20 +946,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -937,21 +976,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -962,6 +986,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -970,10 +1012,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -982,133 +1024,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,13 +1170,13 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1719,56 +1761,56 @@
       <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="7"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1824,8 +1866,8 @@
   <sheetPr/>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1939,7 +1981,7 @@
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>95</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -1957,7 +1999,7 @@
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>99</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1975,7 +2017,7 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>103</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1993,7 +2035,7 @@
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>107</v>
       </c>
       <c r="F10" s="6"/>
@@ -2008,10 +2050,10 @@
       <c r="C11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>111</v>
       </c>
       <c r="F11" s="6"/>
@@ -2055,7 +2097,7 @@
       <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>119</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -2089,7 +2131,7 @@
       <c r="C16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>125</v>
       </c>
       <c r="E16" s="3"/>
@@ -2239,7 +2281,7 @@
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -2256,7 +2298,7 @@
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>134</v>
       </c>
       <c r="E6" s="3"/>
@@ -2286,7 +2328,7 @@
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>99</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -2320,7 +2362,7 @@
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>125</v>
       </c>
       <c r="E10" s="3"/>
@@ -2469,7 +2511,7 @@
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -2486,7 +2528,7 @@
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>134</v>
       </c>
       <c r="E6" s="3"/>
@@ -2532,7 +2574,7 @@
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="3"/>
@@ -2681,7 +2723,7 @@
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -2698,7 +2740,7 @@
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>134</v>
       </c>
       <c r="E6" s="3"/>
@@ -2744,7 +2786,7 @@
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="3"/>
@@ -2890,7 +2932,7 @@
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -2907,7 +2949,7 @@
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>134</v>
       </c>
       <c r="E6" s="3"/>
@@ -2953,7 +2995,7 @@
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="3"/>
@@ -3009,4 +3051,655 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="22.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C30:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C2:C3">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C18">
+      <formula1>Actions!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C29">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="22.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C28:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C9 C10 C11 C2:C3">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C16">
+      <formula1>Actions!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:C27">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="22.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C9 C10 C2:C3">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C15">
+      <formula1>Actions!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C26">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/res/testcase/PakringOperation/UpgradeService/cendutySeat.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/cendutySeat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="763" firstSheet="4" activeTab="6"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="763" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
     <t>点击中央值守坐席管理</t>
   </si>
   <si>
-    <t>CendutySeatPage.中央值守</t>
+    <t>CendutySeatPage.远程值班</t>
   </si>
   <si>
     <t>3</t>
@@ -519,8 +519,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -539,10 +539,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -555,7 +556,75 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -571,44 +640,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,22 +655,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,36 +670,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -698,13 +698,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,7 +728,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,25 +860,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,127 +878,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,17 +907,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -926,6 +920,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -947,16 +967,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,26 +998,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1012,10 +1012,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1024,133 +1024,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1866,8 +1866,8 @@
   <sheetPr/>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2174,7 +2174,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C35:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C12 C13 C14 C15 C16 C17 C18 C2:C3 C9:C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6 C7 C8 C12 C13 C14 C15 C16 C17 C18 C9:C11">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C23">
@@ -2196,7 +2196,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2426,7 +2426,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2638,7 +2638,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2847,7 +2847,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3058,8 +3058,8 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3303,7 +3303,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3515,7 +3515,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/res/testcase/PakringOperation/UpgradeService/cendutySeat.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/cendutySeat.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="159">
   <si>
     <t>动作</t>
   </si>
@@ -321,7 +321,7 @@
     <t>输入坐席人员姓名</t>
   </si>
   <si>
-    <t>CendutySeatPage.坐席人员姓名</t>
+    <t>CendutySeatPage.坐席姓名</t>
   </si>
   <si>
     <t>UI中央值守</t>
@@ -333,7 +333,7 @@
     <t>输入联系电话</t>
   </si>
   <si>
-    <t>CendutySeatPage.联系电话</t>
+    <t>CendutySeatPage.手机号码</t>
   </si>
   <si>
     <t>13800138000</t>
@@ -345,7 +345,7 @@
     <t>点击绑定停车场</t>
   </si>
   <si>
-    <t>CendutySeatPage.绑定停车场</t>
+    <t>CendutySeatPage.值班车场</t>
   </si>
   <si>
     <t>10</t>
@@ -375,18 +375,6 @@
     <t>CendutySeatPage.绑定权限-确认</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>输入备注</t>
-  </si>
-  <si>
-    <t>CendutySeatPage.备注</t>
-  </si>
-  <si>
-    <t>桂城街道瀚天科技城</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
@@ -435,7 +423,7 @@
     <t>CendutySeatPage.编辑</t>
   </si>
   <si>
-    <t>输入修改后的坐席人员姓名</t>
+    <t>输入修改后的坐席姓名</t>
   </si>
   <si>
     <t>UI中央值守修改后</t>
@@ -518,9 +506,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -540,18 +528,42 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -563,11 +575,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -578,9 +620,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,40 +635,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -640,7 +658,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,36 +666,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,7 +686,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,7 +740,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,7 +764,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,19 +830,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,127 +866,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,24 +895,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -940,12 +910,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -966,17 +949,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,10 +1000,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1024,133 +1012,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1864,10 +1852,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2087,100 +2075,82 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" ht="33" customHeight="1" spans="1:6">
+    <row r="14" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A14" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="F14" s="6"/>
     </row>
     <row r="15" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A16" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A17" s="3" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C35:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C34:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6 C7 C8 C12 C13 C14 C15 C16 C17 C18 C9:C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6 C7 C8 C12 C13 C14 C15 C16 C17 C9:C11">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C22">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23:C33">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -2196,7 +2166,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2276,13 +2246,13 @@
         <v>86</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>100</v>
@@ -2293,13 +2263,13 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2308,13 +2278,13 @@
         <v>93</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2323,7 +2293,7 @@
         <v>97</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
@@ -2332,7 +2302,7 @@
         <v>99</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -2348,7 +2318,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F9" s="6"/>
     </row>
@@ -2357,13 +2327,13 @@
         <v>105</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
@@ -2373,16 +2343,16 @@
         <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -2397,7 +2367,7 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2506,16 +2476,16 @@
         <v>86</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -2523,13 +2493,13 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2538,13 +2508,13 @@
         <v>93</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2560,7 +2530,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -2569,13 +2539,13 @@
         <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="6"/>
@@ -2585,16 +2555,16 @@
         <v>105</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -2609,7 +2579,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2718,16 +2688,16 @@
         <v>86</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -2735,13 +2705,13 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2750,13 +2720,13 @@
         <v>93</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2772,7 +2742,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -2781,13 +2751,13 @@
         <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="6"/>
@@ -2797,16 +2767,16 @@
         <v>105</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -2821,7 +2791,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2927,16 +2897,16 @@
         <v>86</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -2944,13 +2914,13 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2959,13 +2929,13 @@
         <v>93</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2981,7 +2951,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -2990,13 +2960,13 @@
         <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="6"/>
@@ -3006,16 +2976,16 @@
         <v>105</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -3030,7 +3000,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3145,7 +3115,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -3154,7 +3124,7 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
@@ -3175,7 +3145,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -3190,10 +3160,10 @@
         <v>58</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -3208,7 +3178,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="6"/>
@@ -3225,7 +3195,7 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F10" s="6"/>
     </row>
@@ -3234,13 +3204,13 @@
         <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
@@ -3250,16 +3220,16 @@
         <v>112</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -3274,7 +3244,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3389,7 +3359,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -3398,13 +3368,13 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -3419,7 +3389,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>96</v>
@@ -3437,7 +3407,7 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -3446,13 +3416,13 @@
         <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="6"/>
@@ -3462,16 +3432,16 @@
         <v>105</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -3486,7 +3456,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3601,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -3610,13 +3580,13 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -3632,7 +3602,7 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F7" s="6"/>
     </row>
@@ -3641,13 +3611,13 @@
         <v>97</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="6"/>
@@ -3657,16 +3627,16 @@
         <v>101</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -3681,7 +3651,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
